--- a/TP2/Calculo de esfuerzo.xlsx
+++ b/TP2/Calculo de esfuerzo.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Roy\Unla\IS2\TPsIS2\TP2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\roy\Unla\IS2\TPsIS2\TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{797CB5AC-112A-4871-AF34-8602B8004087}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{33C372D7-9154-45A7-8CDB-82E0AF9D1E65}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{995C1891-CFBA-4669-BBB0-7960DE3F4A74}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
   <si>
     <t>Calculo de esfuerzo:</t>
   </si>
@@ -63,16 +63,10 @@
     <t>Doty (KLDC &gt; 9, en este caso no aplica)</t>
   </si>
   <si>
-    <t>COCOMO II</t>
-  </si>
-  <si>
-    <t>Tipo de Objeto/Peso de complejidad</t>
-  </si>
-  <si>
-    <t>Basico</t>
-  </si>
-  <si>
-    <t>Intermedio</t>
+    <t>Horas-Persona:</t>
+  </si>
+  <si>
+    <t>Horas totales</t>
   </si>
 </sst>
 </file>
@@ -104,7 +98,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -112,15 +106,32 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,126 +446,148 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26103314-598F-4CA2-ABEB-AFA629721FCA}">
-  <dimension ref="B2:H17"/>
+  <dimension ref="B2:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="2" max="2" width="30.28515625" customWidth="1"/>
     <col min="3" max="3" width="23.42578125" customWidth="1"/>
-    <col min="6" max="6" width="32.28515625" customWidth="1"/>
+    <col min="6" max="6" width="9.28515625" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="F2" s="1"/>
+      <c r="D2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E2" s="1">
+        <v>572</v>
+      </c>
       <c r="G2" s="1" t="s">
         <v>2</v>
       </c>
       <c r="H2" s="2">
         <v>5585</v>
       </c>
-    </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
+      <c r="J2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K2" s="1">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B4" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="G4" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="H4" s="1">
-        <v>572</v>
-      </c>
-    </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
+      <c r="D4" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B6" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="C6" s="3">
+      <c r="C6" s="5">
         <f>5.2*POWER(H2/1000, 0.91)</f>
         <v>24.876795446200898</v>
       </c>
-    </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
+      <c r="D6" s="5">
+        <f>C6*K2</f>
+        <v>3781.2729078225366</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3">
+      <c r="C7" s="5">
         <f>6.23*POWER(H2/1000, 1.16)</f>
         <v>45.817873886712995</v>
       </c>
-    </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
+      <c r="D7" s="5">
+        <f>C7*K2</f>
+        <v>6964.3168307803753</v>
+      </c>
+    </row>
+    <row r="8" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="C8" s="3">
+      <c r="C8" s="5">
         <f>3.2*POWER(H2/1000, 1.05)</f>
         <v>19.477100924332504</v>
       </c>
-    </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
+      <c r="D8" s="5">
+        <f>C8*K2</f>
+        <v>2960.5193404985407</v>
+      </c>
+    </row>
+    <row r="9" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="C9" s="3">
+      <c r="C9" s="5">
         <f>5.288*POWER(H2/1000, 1.047)</f>
         <v>32.020249623464821</v>
       </c>
-    </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="D9" s="5">
+        <f>C9*K2</f>
+        <v>4867.077942766653</v>
+      </c>
+    </row>
+    <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B11" t="s">
+      <c r="D10" s="3"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="C11" s="3">
-        <f>-13.39+(0.0545*H4)</f>
+      <c r="C11" s="5">
+        <f>-13.39+(0.0545*E2)</f>
         <v>17.783999999999999</v>
       </c>
-    </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
+      <c r="D11" s="5">
+        <f>C11*K2</f>
+        <v>2703.1679999999997</v>
+      </c>
+    </row>
+    <row r="12" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C12" s="3">
-        <f>60.62*7.728*POWER(10,-8)*POWER(H4,3)</f>
+      <c r="C12" s="5">
+        <f>60.62*7.728*POWER(10,-8)*POWER(E2,3)</f>
         <v>876.74062733537278</v>
       </c>
-    </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
+      <c r="D12" s="5">
+        <f>C12*K2</f>
+        <v>133264.57535497667</v>
+      </c>
+    </row>
+    <row r="13" spans="2:11" x14ac:dyDescent="0.25">
+      <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="C13" s="3">
-        <f>585.7+(15.12*H4)</f>
+      <c r="C13" s="5">
+        <f>585.7+(15.12*E2)</f>
         <v>9234.34</v>
       </c>
-    </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B15" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="6:8" x14ac:dyDescent="0.25">
-      <c r="F17" t="s">
-        <v>13</v>
-      </c>
-      <c r="G17" t="s">
-        <v>14</v>
-      </c>
-      <c r="H17" t="s">
-        <v>15</v>
+      <c r="D13" s="5">
+        <f>C13*K2</f>
+        <v>1403619.68</v>
       </c>
     </row>
   </sheetData>

--- a/TP2/Calculo de esfuerzo.xlsx
+++ b/TP2/Calculo de esfuerzo.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\roy\Unla\IS2\TPsIS2\TP2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{33C372D7-9154-45A7-8CDB-82E0AF9D1E65}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1DD5818B-9645-4C01-A33D-D7B7B2DE129A}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7545" xr2:uid="{995C1891-CFBA-4669-BBB0-7960DE3F4A74}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>Calculo de esfuerzo:</t>
   </si>
@@ -61,12 +61,6 @@
   </si>
   <si>
     <t>Doty (KLDC &gt; 9, en este caso no aplica)</t>
-  </si>
-  <si>
-    <t>Horas-Persona:</t>
-  </si>
-  <si>
-    <t>Horas totales</t>
   </si>
 </sst>
 </file>
@@ -125,13 +119,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -449,7 +444,7 @@
   <dimension ref="B2:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -465,24 +460,14 @@
         <v>0</v>
       </c>
       <c r="C2" s="1"/>
-      <c r="D2" s="1" t="s">
+      <c r="E2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="1">
+      <c r="F2" s="1">
         <v>572</v>
       </c>
-      <c r="G2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H2" s="2">
-        <v>5585</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="K2" s="1">
-        <v>152</v>
-      </c>
+      <c r="J2" s="1"/>
+      <c r="K2" s="1"/>
     </row>
     <row r="4" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B4" s="1" t="s">
@@ -491,8 +476,12 @@
       <c r="C4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="D4" s="1" t="s">
-        <v>13</v>
+      <c r="D4" s="1"/>
+      <c r="E4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F4" s="2">
+        <v>36303</v>
       </c>
     </row>
     <row r="6" spans="2:11" x14ac:dyDescent="0.25">
@@ -500,95 +489,74 @@
         <v>4</v>
       </c>
       <c r="C6" s="5">
-        <f>5.2*POWER(H2/1000, 0.91)</f>
-        <v>24.876795446200898</v>
-      </c>
-      <c r="D6" s="5">
-        <f>C6*K2</f>
-        <v>3781.2729078225366</v>
-      </c>
+        <f>5.2*POWER(F4/1000, 0.91)</f>
+        <v>136.63156186709739</v>
+      </c>
+      <c r="D6" s="6"/>
     </row>
     <row r="7" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
       <c r="C7" s="5">
-        <f>6.23*POWER(H2/1000, 1.16)</f>
-        <v>45.817873886712995</v>
-      </c>
-      <c r="D7" s="5">
-        <f>C7*K2</f>
-        <v>6964.3168307803753</v>
-      </c>
+        <f>6.23*POWER(F4/1000, 1.16)</f>
+        <v>401.81057716259517</v>
+      </c>
+      <c r="D7" s="6"/>
     </row>
     <row r="8" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B8" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C8" s="5">
-        <f>3.2*POWER(H2/1000, 1.05)</f>
-        <v>19.477100924332504</v>
-      </c>
-      <c r="D8" s="5">
-        <f>C8*K2</f>
-        <v>2960.5193404985407</v>
-      </c>
+        <f>3.2*POWER(F4/1000, 1.05)</f>
+        <v>139.023948744232</v>
+      </c>
+      <c r="D8" s="6"/>
     </row>
     <row r="9" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C9" s="5">
-        <f>5.288*POWER(H2/1000, 1.047)</f>
-        <v>32.020249623464821</v>
-      </c>
-      <c r="D9" s="5">
-        <f>C9*K2</f>
-        <v>4867.077942766653</v>
-      </c>
+        <f>5.288*POWER(F4/1000, 1.047)</f>
+        <v>227.27478749848288</v>
+      </c>
+      <c r="D9" s="6"/>
     </row>
     <row r="10" spans="2:11" x14ac:dyDescent="0.25">
       <c r="C10" s="3"/>
-      <c r="D10" s="3"/>
+      <c r="D10" s="6"/>
     </row>
     <row r="11" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B11" s="4" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="5">
-        <f>-13.39+(0.0545*E2)</f>
+        <f>-13.39+(0.0545*F2)</f>
         <v>17.783999999999999</v>
       </c>
-      <c r="D11" s="5">
-        <f>C11*K2</f>
-        <v>2703.1679999999997</v>
-      </c>
+      <c r="D11" s="6"/>
     </row>
     <row r="12" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B12" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="5">
-        <f>60.62*7.728*POWER(10,-8)*POWER(E2,3)</f>
+        <f>60.62*7.728*POWER(10,-8)*POWER(F2,3)</f>
         <v>876.74062733537278</v>
       </c>
-      <c r="D12" s="5">
-        <f>C12*K2</f>
-        <v>133264.57535497667</v>
-      </c>
+      <c r="D12" s="6"/>
     </row>
     <row r="13" spans="2:11" x14ac:dyDescent="0.25">
       <c r="B13" s="4" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="5">
-        <f>585.7+(15.12*E2)</f>
+        <f>585.7+(15.12*F2)</f>
         <v>9234.34</v>
       </c>
-      <c r="D13" s="5">
-        <f>C13*K2</f>
-        <v>1403619.68</v>
-      </c>
+      <c r="D13" s="6"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
